--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023 - Copy.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F822A60-734F-421E-99BB-556375F76EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B14067-A94B-4FFE-B9D0-AA82FAF3BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38365,10 +38365,10 @@
   <dimension ref="A1:O1023"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C858" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C712" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C845" sqref="C845"/>
+      <selection pane="bottomRight" activeCell="I807" sqref="I807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -59998,7 +59998,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -60009,576 +60009,248 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D376:I376</xm:f>
-              <xm:sqref>J376</xm:sqref>
+              <xm:f>'AF SODECI'!E561:I561</xm:f>
+              <xm:sqref>J561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D377:I377</xm:f>
-              <xm:sqref>J377</xm:sqref>
+              <xm:f>'AF SODECI'!E562:I562</xm:f>
+              <xm:sqref>J562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D378:I378</xm:f>
-              <xm:sqref>J378</xm:sqref>
+              <xm:f>'AF SODECI'!E563:I563</xm:f>
+              <xm:sqref>J563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D379:I379</xm:f>
-              <xm:sqref>J379</xm:sqref>
+              <xm:f>'AF SODECI'!E564:I564</xm:f>
+              <xm:sqref>J564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D380:I380</xm:f>
-              <xm:sqref>J380</xm:sqref>
+              <xm:f>'AF SODECI'!E565:I565</xm:f>
+              <xm:sqref>J565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D381:I381</xm:f>
-              <xm:sqref>J381</xm:sqref>
+              <xm:f>'AF SODECI'!E566:I566</xm:f>
+              <xm:sqref>J566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D382:I382</xm:f>
-              <xm:sqref>J382</xm:sqref>
+              <xm:f>'AF SODECI'!E567:I567</xm:f>
+              <xm:sqref>J567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D383:I383</xm:f>
-              <xm:sqref>J383</xm:sqref>
+              <xm:f>'AF SODECI'!E568:I568</xm:f>
+              <xm:sqref>J568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D384:I384</xm:f>
-              <xm:sqref>J384</xm:sqref>
+              <xm:f>'AF SODECI'!E569:I569</xm:f>
+              <xm:sqref>J569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D385:I385</xm:f>
-              <xm:sqref>J385</xm:sqref>
+              <xm:f>'AF SODECI'!E570:I570</xm:f>
+              <xm:sqref>J570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D386:I386</xm:f>
-              <xm:sqref>J386</xm:sqref>
+              <xm:f>'AF SODECI'!E571:I571</xm:f>
+              <xm:sqref>J571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D387:I387</xm:f>
-              <xm:sqref>J387</xm:sqref>
+              <xm:f>'AF SODECI'!E572:I572</xm:f>
+              <xm:sqref>J572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D388:I388</xm:f>
-              <xm:sqref>J388</xm:sqref>
+              <xm:f>'AF SODECI'!E573:I573</xm:f>
+              <xm:sqref>J573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D389:I389</xm:f>
-              <xm:sqref>J389</xm:sqref>
+              <xm:f>'AF SODECI'!E574:I574</xm:f>
+              <xm:sqref>J574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D390:I390</xm:f>
-              <xm:sqref>J390</xm:sqref>
+              <xm:f>'AF SODECI'!E575:I575</xm:f>
+              <xm:sqref>J575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D391:I391</xm:f>
-              <xm:sqref>J391</xm:sqref>
+              <xm:f>'AF SODECI'!E576:I576</xm:f>
+              <xm:sqref>J576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D392:I392</xm:f>
-              <xm:sqref>J392</xm:sqref>
+              <xm:f>'AF SODECI'!E577:I577</xm:f>
+              <xm:sqref>J577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D393:I393</xm:f>
-              <xm:sqref>J393</xm:sqref>
+              <xm:f>'AF SODECI'!E578:I578</xm:f>
+              <xm:sqref>J578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D394:I394</xm:f>
-              <xm:sqref>J394</xm:sqref>
+              <xm:f>'AF SODECI'!E579:I579</xm:f>
+              <xm:sqref>J579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D395:I395</xm:f>
-              <xm:sqref>J395</xm:sqref>
+              <xm:f>'AF SODECI'!E580:I580</xm:f>
+              <xm:sqref>J580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D396:I396</xm:f>
-              <xm:sqref>J396</xm:sqref>
+              <xm:f>'AF SODECI'!E581:I581</xm:f>
+              <xm:sqref>J581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D397:I397</xm:f>
-              <xm:sqref>J397</xm:sqref>
+              <xm:f>'AF SODECI'!E582:I582</xm:f>
+              <xm:sqref>J582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D398:I398</xm:f>
-              <xm:sqref>J398</xm:sqref>
+              <xm:f>'AF SODECI'!E583:I583</xm:f>
+              <xm:sqref>J583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D399:I399</xm:f>
-              <xm:sqref>J399</xm:sqref>
+              <xm:f>'AF SODECI'!E584:I584</xm:f>
+              <xm:sqref>J584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D400:I400</xm:f>
-              <xm:sqref>J400</xm:sqref>
+              <xm:f>'AF SODECI'!E585:I585</xm:f>
+              <xm:sqref>J585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D401:I401</xm:f>
-              <xm:sqref>J401</xm:sqref>
+              <xm:f>'AF SODECI'!E586:I586</xm:f>
+              <xm:sqref>J586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D402:I402</xm:f>
-              <xm:sqref>J402</xm:sqref>
+              <xm:f>'AF SODECI'!E587:I587</xm:f>
+              <xm:sqref>J587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D403:I403</xm:f>
-              <xm:sqref>J403</xm:sqref>
+              <xm:f>'AF SODECI'!E588:I588</xm:f>
+              <xm:sqref>J588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D404:I404</xm:f>
-              <xm:sqref>J404</xm:sqref>
+              <xm:f>'AF SODECI'!E589:I589</xm:f>
+              <xm:sqref>J589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D405:I405</xm:f>
-              <xm:sqref>J405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D406:I406</xm:f>
-              <xm:sqref>J406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D407:I407</xm:f>
-              <xm:sqref>J407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D408:I408</xm:f>
-              <xm:sqref>J408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D409:I409</xm:f>
-              <xm:sqref>J409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D410:I410</xm:f>
-              <xm:sqref>J410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D411:I411</xm:f>
-              <xm:sqref>J411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D412:I412</xm:f>
-              <xm:sqref>J412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D413:I413</xm:f>
-              <xm:sqref>J413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D414:I414</xm:f>
-              <xm:sqref>J414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D415:I415</xm:f>
-              <xm:sqref>J415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D416:I416</xm:f>
-              <xm:sqref>J416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D417:I417</xm:f>
-              <xm:sqref>J417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D418:I418</xm:f>
-              <xm:sqref>J418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D419:I419</xm:f>
-              <xm:sqref>J419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D420:I420</xm:f>
-              <xm:sqref>J420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D421:I421</xm:f>
-              <xm:sqref>J421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D422:I422</xm:f>
-              <xm:sqref>J422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D423:I423</xm:f>
-              <xm:sqref>J423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D424:I424</xm:f>
-              <xm:sqref>J424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D425:I425</xm:f>
-              <xm:sqref>J425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D426:I426</xm:f>
-              <xm:sqref>J426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D427:I427</xm:f>
-              <xm:sqref>J427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D428:I428</xm:f>
-              <xm:sqref>J428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D429:I429</xm:f>
-              <xm:sqref>J429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D430:I430</xm:f>
-              <xm:sqref>J430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D431:I431</xm:f>
-              <xm:sqref>J431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D432:I432</xm:f>
-              <xm:sqref>J432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D433:I433</xm:f>
-              <xm:sqref>J433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D434:I434</xm:f>
-              <xm:sqref>J434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D435:I435</xm:f>
-              <xm:sqref>J435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D436:I436</xm:f>
-              <xm:sqref>J436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D437:I437</xm:f>
-              <xm:sqref>J437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D438:I438</xm:f>
-              <xm:sqref>J438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D439:I439</xm:f>
-              <xm:sqref>J439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D440:I440</xm:f>
-              <xm:sqref>J440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D441:I441</xm:f>
-              <xm:sqref>J441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D442:I442</xm:f>
-              <xm:sqref>J442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D443:I443</xm:f>
-              <xm:sqref>J443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D444:I444</xm:f>
-              <xm:sqref>J444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D445:I445</xm:f>
-              <xm:sqref>J445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D446:I446</xm:f>
-              <xm:sqref>J446</xm:sqref>
+              <xm:f>'AF SODECI'!E590:I590</xm:f>
+              <xm:sqref>J590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -60589,832 +60261,244 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E318:I318</xm:f>
-              <xm:sqref>J318</xm:sqref>
+              <xm:f>'AF SODECI'!D528:I528</xm:f>
+              <xm:sqref>J528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E319:I319</xm:f>
-              <xm:sqref>J319</xm:sqref>
+              <xm:f>'AF SODECI'!D529:I529</xm:f>
+              <xm:sqref>J529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E320:I320</xm:f>
-              <xm:sqref>J320</xm:sqref>
+              <xm:f>'AF SODECI'!D530:I530</xm:f>
+              <xm:sqref>J530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E321:I321</xm:f>
-              <xm:sqref>J321</xm:sqref>
+              <xm:f>'AF SODECI'!D531:I531</xm:f>
+              <xm:sqref>J531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E322:I322</xm:f>
-              <xm:sqref>J322</xm:sqref>
+              <xm:f>'AF SODECI'!D532:I532</xm:f>
+              <xm:sqref>J532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E323:I323</xm:f>
-              <xm:sqref>J323</xm:sqref>
+              <xm:f>'AF SODECI'!D533:I533</xm:f>
+              <xm:sqref>J533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E324:I324</xm:f>
-              <xm:sqref>J324</xm:sqref>
+              <xm:f>'AF SODECI'!D534:I534</xm:f>
+              <xm:sqref>J534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E325:I325</xm:f>
-              <xm:sqref>J325</xm:sqref>
+              <xm:f>'AF SODECI'!D535:I535</xm:f>
+              <xm:sqref>J535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E326:I326</xm:f>
-              <xm:sqref>J326</xm:sqref>
+              <xm:f>'AF SODECI'!D536:I536</xm:f>
+              <xm:sqref>J536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E327:I327</xm:f>
-              <xm:sqref>J327</xm:sqref>
+              <xm:f>'AF SODECI'!D537:I537</xm:f>
+              <xm:sqref>J537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E328:I328</xm:f>
-              <xm:sqref>J328</xm:sqref>
+              <xm:f>'AF SODECI'!D538:I538</xm:f>
+              <xm:sqref>J538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E329:I329</xm:f>
-              <xm:sqref>J329</xm:sqref>
+              <xm:f>'AF SODECI'!D539:I539</xm:f>
+              <xm:sqref>J539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E330:I330</xm:f>
-              <xm:sqref>J330</xm:sqref>
+              <xm:f>'AF SODECI'!D540:I540</xm:f>
+              <xm:sqref>J540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E331:I331</xm:f>
-              <xm:sqref>J331</xm:sqref>
+              <xm:f>'AF SODECI'!D541:I541</xm:f>
+              <xm:sqref>J541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E332:I332</xm:f>
-              <xm:sqref>J332</xm:sqref>
+              <xm:f>'AF SODECI'!D542:I542</xm:f>
+              <xm:sqref>J542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E333:I333</xm:f>
-              <xm:sqref>J333</xm:sqref>
+              <xm:f>'AF SODECI'!D543:I543</xm:f>
+              <xm:sqref>J543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E334:I334</xm:f>
-              <xm:sqref>J334</xm:sqref>
+              <xm:f>'AF SODECI'!D544:I544</xm:f>
+              <xm:sqref>J544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E335:I335</xm:f>
-              <xm:sqref>J335</xm:sqref>
+              <xm:f>'AF SODECI'!D545:I545</xm:f>
+              <xm:sqref>J545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E336:I336</xm:f>
-              <xm:sqref>J336</xm:sqref>
+              <xm:f>'AF SODECI'!D546:I546</xm:f>
+              <xm:sqref>J546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E337:I337</xm:f>
-              <xm:sqref>J337</xm:sqref>
+              <xm:f>'AF SODECI'!D547:I547</xm:f>
+              <xm:sqref>J547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E338:I338</xm:f>
-              <xm:sqref>J338</xm:sqref>
+              <xm:f>'AF SODECI'!D548:I548</xm:f>
+              <xm:sqref>J548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E339:I339</xm:f>
-              <xm:sqref>J339</xm:sqref>
+              <xm:f>'AF SODECI'!D549:I549</xm:f>
+              <xm:sqref>J549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E340:I340</xm:f>
-              <xm:sqref>J340</xm:sqref>
+              <xm:f>'AF SODECI'!D550:I550</xm:f>
+              <xm:sqref>J550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E341:I341</xm:f>
-              <xm:sqref>J341</xm:sqref>
+              <xm:f>'AF SODECI'!D551:I551</xm:f>
+              <xm:sqref>J551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E342:I342</xm:f>
-              <xm:sqref>J342</xm:sqref>
+              <xm:f>'AF SODECI'!D552:I552</xm:f>
+              <xm:sqref>J552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E343:I343</xm:f>
-              <xm:sqref>J343</xm:sqref>
+              <xm:f>'AF SODECI'!D553:I553</xm:f>
+              <xm:sqref>J553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E344:I344</xm:f>
-              <xm:sqref>J344</xm:sqref>
+              <xm:f>'AF SODECI'!D554:I554</xm:f>
+              <xm:sqref>J554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E345:I345</xm:f>
-              <xm:sqref>J345</xm:sqref>
+              <xm:f>'AF SODECI'!D555:I555</xm:f>
+              <xm:sqref>J555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E346:I346</xm:f>
-              <xm:sqref>J346</xm:sqref>
+              <xm:f>'AF SODECI'!D556:I556</xm:f>
+              <xm:sqref>J556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E347:I347</xm:f>
-              <xm:sqref>J347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E348:I348</xm:f>
-              <xm:sqref>J348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E349:I349</xm:f>
-              <xm:sqref>J349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E350:I350</xm:f>
-              <xm:sqref>J350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E351:I351</xm:f>
-              <xm:sqref>J351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E352:I352</xm:f>
-              <xm:sqref>J352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E353:I353</xm:f>
-              <xm:sqref>J353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E354:I354</xm:f>
-              <xm:sqref>J354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E355:I355</xm:f>
-              <xm:sqref>J355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E356:I356</xm:f>
-              <xm:sqref>J356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E357:I357</xm:f>
-              <xm:sqref>J357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E358:I358</xm:f>
-              <xm:sqref>J358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E359:I359</xm:f>
-              <xm:sqref>J359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E360:I360</xm:f>
-              <xm:sqref>J360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E361:I361</xm:f>
-              <xm:sqref>J361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E362:I362</xm:f>
-              <xm:sqref>J362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E363:I363</xm:f>
-              <xm:sqref>J363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E364:I364</xm:f>
-              <xm:sqref>J364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E365:I365</xm:f>
-              <xm:sqref>J365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E366:I366</xm:f>
-              <xm:sqref>J366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E367:I367</xm:f>
-              <xm:sqref>J367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!E368:I368</xm:f>
-              <xm:sqref>J368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D264:I264</xm:f>
-              <xm:sqref>J264</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D265:I265</xm:f>
-              <xm:sqref>J265</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D266:I266</xm:f>
-              <xm:sqref>J266</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D267:I267</xm:f>
-              <xm:sqref>J267</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D268:I268</xm:f>
-              <xm:sqref>J268</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D269:I269</xm:f>
-              <xm:sqref>J269</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D270:I270</xm:f>
-              <xm:sqref>J270</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D271:I271</xm:f>
-              <xm:sqref>J271</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D272:I272</xm:f>
-              <xm:sqref>J272</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D273:I273</xm:f>
-              <xm:sqref>J273</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D274:I274</xm:f>
-              <xm:sqref>J274</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D275:I275</xm:f>
-              <xm:sqref>J275</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D276:I276</xm:f>
-              <xm:sqref>J276</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D277:I277</xm:f>
-              <xm:sqref>J277</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D278:I278</xm:f>
-              <xm:sqref>J278</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D279:I279</xm:f>
-              <xm:sqref>J279</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D280:I280</xm:f>
-              <xm:sqref>J280</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D281:I281</xm:f>
-              <xm:sqref>J281</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D282:I282</xm:f>
-              <xm:sqref>J282</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D283:I283</xm:f>
-              <xm:sqref>J283</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D284:I284</xm:f>
-              <xm:sqref>J284</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D285:I285</xm:f>
-              <xm:sqref>J285</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D286:I286</xm:f>
-              <xm:sqref>J286</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D287:I287</xm:f>
-              <xm:sqref>J287</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D288:I288</xm:f>
-              <xm:sqref>J288</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D289:I289</xm:f>
-              <xm:sqref>J289</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D290:I290</xm:f>
-              <xm:sqref>J290</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D291:I291</xm:f>
-              <xm:sqref>J291</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D292:I292</xm:f>
-              <xm:sqref>J292</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D293:I293</xm:f>
-              <xm:sqref>J293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D294:I294</xm:f>
-              <xm:sqref>J294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D295:I295</xm:f>
-              <xm:sqref>J295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D296:I296</xm:f>
-              <xm:sqref>J296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D297:I297</xm:f>
-              <xm:sqref>J297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D298:I298</xm:f>
-              <xm:sqref>J298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D299:I299</xm:f>
-              <xm:sqref>J299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D300:I300</xm:f>
-              <xm:sqref>J300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D301:I301</xm:f>
-              <xm:sqref>J301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D302:I302</xm:f>
-              <xm:sqref>J302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D303:I303</xm:f>
-              <xm:sqref>J303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D304:I304</xm:f>
-              <xm:sqref>J304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D305:I305</xm:f>
-              <xm:sqref>J305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D306:I306</xm:f>
-              <xm:sqref>J306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D307:I307</xm:f>
-              <xm:sqref>J307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D308:I308</xm:f>
-              <xm:sqref>J308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D309:I309</xm:f>
-              <xm:sqref>J309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D310:I310</xm:f>
-              <xm:sqref>J310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D311:I311</xm:f>
-              <xm:sqref>J311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D312:I312</xm:f>
-              <xm:sqref>J312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D313:I313</xm:f>
-              <xm:sqref>J313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D314:I314</xm:f>
-              <xm:sqref>J314</xm:sqref>
+              <xm:f>'AF SODECI'!D557:I557</xm:f>
+              <xm:sqref>J557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -61998,7 +61082,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -62009,248 +61093,416 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D528:I528</xm:f>
-              <xm:sqref>J528</xm:sqref>
+              <xm:f>'AF SODECI'!D264:I264</xm:f>
+              <xm:sqref>J264</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D529:I529</xm:f>
-              <xm:sqref>J529</xm:sqref>
+              <xm:f>'AF SODECI'!D265:I265</xm:f>
+              <xm:sqref>J265</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D530:I530</xm:f>
-              <xm:sqref>J530</xm:sqref>
+              <xm:f>'AF SODECI'!D266:I266</xm:f>
+              <xm:sqref>J266</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D531:I531</xm:f>
-              <xm:sqref>J531</xm:sqref>
+              <xm:f>'AF SODECI'!D267:I267</xm:f>
+              <xm:sqref>J267</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D532:I532</xm:f>
-              <xm:sqref>J532</xm:sqref>
+              <xm:f>'AF SODECI'!D268:I268</xm:f>
+              <xm:sqref>J268</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D533:I533</xm:f>
-              <xm:sqref>J533</xm:sqref>
+              <xm:f>'AF SODECI'!D269:I269</xm:f>
+              <xm:sqref>J269</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D534:I534</xm:f>
-              <xm:sqref>J534</xm:sqref>
+              <xm:f>'AF SODECI'!D270:I270</xm:f>
+              <xm:sqref>J270</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D535:I535</xm:f>
-              <xm:sqref>J535</xm:sqref>
+              <xm:f>'AF SODECI'!D271:I271</xm:f>
+              <xm:sqref>J271</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D536:I536</xm:f>
-              <xm:sqref>J536</xm:sqref>
+              <xm:f>'AF SODECI'!D272:I272</xm:f>
+              <xm:sqref>J272</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D537:I537</xm:f>
-              <xm:sqref>J537</xm:sqref>
+              <xm:f>'AF SODECI'!D273:I273</xm:f>
+              <xm:sqref>J273</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D538:I538</xm:f>
-              <xm:sqref>J538</xm:sqref>
+              <xm:f>'AF SODECI'!D274:I274</xm:f>
+              <xm:sqref>J274</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D539:I539</xm:f>
-              <xm:sqref>J539</xm:sqref>
+              <xm:f>'AF SODECI'!D275:I275</xm:f>
+              <xm:sqref>J275</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D540:I540</xm:f>
-              <xm:sqref>J540</xm:sqref>
+              <xm:f>'AF SODECI'!D276:I276</xm:f>
+              <xm:sqref>J276</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D541:I541</xm:f>
-              <xm:sqref>J541</xm:sqref>
+              <xm:f>'AF SODECI'!D277:I277</xm:f>
+              <xm:sqref>J277</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D542:I542</xm:f>
-              <xm:sqref>J542</xm:sqref>
+              <xm:f>'AF SODECI'!D278:I278</xm:f>
+              <xm:sqref>J278</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D543:I543</xm:f>
-              <xm:sqref>J543</xm:sqref>
+              <xm:f>'AF SODECI'!D279:I279</xm:f>
+              <xm:sqref>J279</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D544:I544</xm:f>
-              <xm:sqref>J544</xm:sqref>
+              <xm:f>'AF SODECI'!D280:I280</xm:f>
+              <xm:sqref>J280</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D545:I545</xm:f>
-              <xm:sqref>J545</xm:sqref>
+              <xm:f>'AF SODECI'!D281:I281</xm:f>
+              <xm:sqref>J281</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D546:I546</xm:f>
-              <xm:sqref>J546</xm:sqref>
+              <xm:f>'AF SODECI'!D282:I282</xm:f>
+              <xm:sqref>J282</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D547:I547</xm:f>
-              <xm:sqref>J547</xm:sqref>
+              <xm:f>'AF SODECI'!D283:I283</xm:f>
+              <xm:sqref>J283</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D548:I548</xm:f>
-              <xm:sqref>J548</xm:sqref>
+              <xm:f>'AF SODECI'!D284:I284</xm:f>
+              <xm:sqref>J284</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D549:I549</xm:f>
-              <xm:sqref>J549</xm:sqref>
+              <xm:f>'AF SODECI'!D285:I285</xm:f>
+              <xm:sqref>J285</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D550:I550</xm:f>
-              <xm:sqref>J550</xm:sqref>
+              <xm:f>'AF SODECI'!D286:I286</xm:f>
+              <xm:sqref>J286</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D551:I551</xm:f>
-              <xm:sqref>J551</xm:sqref>
+              <xm:f>'AF SODECI'!D287:I287</xm:f>
+              <xm:sqref>J287</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D552:I552</xm:f>
-              <xm:sqref>J552</xm:sqref>
+              <xm:f>'AF SODECI'!D288:I288</xm:f>
+              <xm:sqref>J288</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D553:I553</xm:f>
-              <xm:sqref>J553</xm:sqref>
+              <xm:f>'AF SODECI'!D289:I289</xm:f>
+              <xm:sqref>J289</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D554:I554</xm:f>
-              <xm:sqref>J554</xm:sqref>
+              <xm:f>'AF SODECI'!D290:I290</xm:f>
+              <xm:sqref>J290</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D555:I555</xm:f>
-              <xm:sqref>J555</xm:sqref>
+              <xm:f>'AF SODECI'!D291:I291</xm:f>
+              <xm:sqref>J291</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D556:I556</xm:f>
-              <xm:sqref>J556</xm:sqref>
+              <xm:f>'AF SODECI'!D292:I292</xm:f>
+              <xm:sqref>J292</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D557:I557</xm:f>
-              <xm:sqref>J557</xm:sqref>
+              <xm:f>'AF SODECI'!D293:I293</xm:f>
+              <xm:sqref>J293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D294:I294</xm:f>
+              <xm:sqref>J294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D295:I295</xm:f>
+              <xm:sqref>J295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D296:I296</xm:f>
+              <xm:sqref>J296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D297:I297</xm:f>
+              <xm:sqref>J297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D298:I298</xm:f>
+              <xm:sqref>J298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D299:I299</xm:f>
+              <xm:sqref>J299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D300:I300</xm:f>
+              <xm:sqref>J300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D301:I301</xm:f>
+              <xm:sqref>J301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D302:I302</xm:f>
+              <xm:sqref>J302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D303:I303</xm:f>
+              <xm:sqref>J303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D304:I304</xm:f>
+              <xm:sqref>J304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D305:I305</xm:f>
+              <xm:sqref>J305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D306:I306</xm:f>
+              <xm:sqref>J306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D307:I307</xm:f>
+              <xm:sqref>J307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D308:I308</xm:f>
+              <xm:sqref>J308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D309:I309</xm:f>
+              <xm:sqref>J309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D310:I310</xm:f>
+              <xm:sqref>J310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D311:I311</xm:f>
+              <xm:sqref>J311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D312:I312</xm:f>
+              <xm:sqref>J312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D313:I313</xm:f>
+              <xm:sqref>J313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D314:I314</xm:f>
+              <xm:sqref>J314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -62261,244 +61513,992 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E561:I561</xm:f>
-              <xm:sqref>J561</xm:sqref>
+              <xm:f>'AF SODECI'!E318:I318</xm:f>
+              <xm:sqref>J318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E562:I562</xm:f>
-              <xm:sqref>J562</xm:sqref>
+              <xm:f>'AF SODECI'!E319:I319</xm:f>
+              <xm:sqref>J319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E563:I563</xm:f>
-              <xm:sqref>J563</xm:sqref>
+              <xm:f>'AF SODECI'!E320:I320</xm:f>
+              <xm:sqref>J320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E564:I564</xm:f>
-              <xm:sqref>J564</xm:sqref>
+              <xm:f>'AF SODECI'!E321:I321</xm:f>
+              <xm:sqref>J321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E565:I565</xm:f>
-              <xm:sqref>J565</xm:sqref>
+              <xm:f>'AF SODECI'!E322:I322</xm:f>
+              <xm:sqref>J322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E566:I566</xm:f>
-              <xm:sqref>J566</xm:sqref>
+              <xm:f>'AF SODECI'!E323:I323</xm:f>
+              <xm:sqref>J323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E567:I567</xm:f>
-              <xm:sqref>J567</xm:sqref>
+              <xm:f>'AF SODECI'!E324:I324</xm:f>
+              <xm:sqref>J324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E568:I568</xm:f>
-              <xm:sqref>J568</xm:sqref>
+              <xm:f>'AF SODECI'!E325:I325</xm:f>
+              <xm:sqref>J325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E569:I569</xm:f>
-              <xm:sqref>J569</xm:sqref>
+              <xm:f>'AF SODECI'!E326:I326</xm:f>
+              <xm:sqref>J326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E570:I570</xm:f>
-              <xm:sqref>J570</xm:sqref>
+              <xm:f>'AF SODECI'!E327:I327</xm:f>
+              <xm:sqref>J327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E571:I571</xm:f>
-              <xm:sqref>J571</xm:sqref>
+              <xm:f>'AF SODECI'!E328:I328</xm:f>
+              <xm:sqref>J328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E572:I572</xm:f>
-              <xm:sqref>J572</xm:sqref>
+              <xm:f>'AF SODECI'!E329:I329</xm:f>
+              <xm:sqref>J329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E573:I573</xm:f>
-              <xm:sqref>J573</xm:sqref>
+              <xm:f>'AF SODECI'!E330:I330</xm:f>
+              <xm:sqref>J330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E574:I574</xm:f>
-              <xm:sqref>J574</xm:sqref>
+              <xm:f>'AF SODECI'!E331:I331</xm:f>
+              <xm:sqref>J331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E575:I575</xm:f>
-              <xm:sqref>J575</xm:sqref>
+              <xm:f>'AF SODECI'!E332:I332</xm:f>
+              <xm:sqref>J332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E576:I576</xm:f>
-              <xm:sqref>J576</xm:sqref>
+              <xm:f>'AF SODECI'!E333:I333</xm:f>
+              <xm:sqref>J333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E577:I577</xm:f>
-              <xm:sqref>J577</xm:sqref>
+              <xm:f>'AF SODECI'!E334:I334</xm:f>
+              <xm:sqref>J334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E578:I578</xm:f>
-              <xm:sqref>J578</xm:sqref>
+              <xm:f>'AF SODECI'!E335:I335</xm:f>
+              <xm:sqref>J335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E579:I579</xm:f>
-              <xm:sqref>J579</xm:sqref>
+              <xm:f>'AF SODECI'!E336:I336</xm:f>
+              <xm:sqref>J336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E580:I580</xm:f>
-              <xm:sqref>J580</xm:sqref>
+              <xm:f>'AF SODECI'!E337:I337</xm:f>
+              <xm:sqref>J337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E581:I581</xm:f>
-              <xm:sqref>J581</xm:sqref>
+              <xm:f>'AF SODECI'!E338:I338</xm:f>
+              <xm:sqref>J338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E582:I582</xm:f>
-              <xm:sqref>J582</xm:sqref>
+              <xm:f>'AF SODECI'!E339:I339</xm:f>
+              <xm:sqref>J339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E583:I583</xm:f>
-              <xm:sqref>J583</xm:sqref>
+              <xm:f>'AF SODECI'!E340:I340</xm:f>
+              <xm:sqref>J340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E584:I584</xm:f>
-              <xm:sqref>J584</xm:sqref>
+              <xm:f>'AF SODECI'!E341:I341</xm:f>
+              <xm:sqref>J341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E585:I585</xm:f>
-              <xm:sqref>J585</xm:sqref>
+              <xm:f>'AF SODECI'!E342:I342</xm:f>
+              <xm:sqref>J342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E586:I586</xm:f>
-              <xm:sqref>J586</xm:sqref>
+              <xm:f>'AF SODECI'!E343:I343</xm:f>
+              <xm:sqref>J343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E587:I587</xm:f>
-              <xm:sqref>J587</xm:sqref>
+              <xm:f>'AF SODECI'!E344:I344</xm:f>
+              <xm:sqref>J344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E588:I588</xm:f>
-              <xm:sqref>J588</xm:sqref>
+              <xm:f>'AF SODECI'!E345:I345</xm:f>
+              <xm:sqref>J345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E589:I589</xm:f>
-              <xm:sqref>J589</xm:sqref>
+              <xm:f>'AF SODECI'!E346:I346</xm:f>
+              <xm:sqref>J346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!E590:I590</xm:f>
-              <xm:sqref>J590</xm:sqref>
+              <xm:f>'AF SODECI'!E347:I347</xm:f>
+              <xm:sqref>J347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E348:I348</xm:f>
+              <xm:sqref>J348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E349:I349</xm:f>
+              <xm:sqref>J349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E350:I350</xm:f>
+              <xm:sqref>J350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E351:I351</xm:f>
+              <xm:sqref>J351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E352:I352</xm:f>
+              <xm:sqref>J352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E353:I353</xm:f>
+              <xm:sqref>J353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E354:I354</xm:f>
+              <xm:sqref>J354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E355:I355</xm:f>
+              <xm:sqref>J355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E356:I356</xm:f>
+              <xm:sqref>J356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E357:I357</xm:f>
+              <xm:sqref>J357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E358:I358</xm:f>
+              <xm:sqref>J358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E359:I359</xm:f>
+              <xm:sqref>J359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E360:I360</xm:f>
+              <xm:sqref>J360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E361:I361</xm:f>
+              <xm:sqref>J361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E362:I362</xm:f>
+              <xm:sqref>J362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E363:I363</xm:f>
+              <xm:sqref>J363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E364:I364</xm:f>
+              <xm:sqref>J364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E365:I365</xm:f>
+              <xm:sqref>J365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E366:I366</xm:f>
+              <xm:sqref>J366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E367:I367</xm:f>
+              <xm:sqref>J367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!E368:I368</xm:f>
+              <xm:sqref>J368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D376:I376</xm:f>
+              <xm:sqref>J376</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D377:I377</xm:f>
+              <xm:sqref>J377</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D378:I378</xm:f>
+              <xm:sqref>J378</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D379:I379</xm:f>
+              <xm:sqref>J379</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D380:I380</xm:f>
+              <xm:sqref>J380</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D381:I381</xm:f>
+              <xm:sqref>J381</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D382:I382</xm:f>
+              <xm:sqref>J382</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D383:I383</xm:f>
+              <xm:sqref>J383</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D384:I384</xm:f>
+              <xm:sqref>J384</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D385:I385</xm:f>
+              <xm:sqref>J385</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D386:I386</xm:f>
+              <xm:sqref>J386</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D387:I387</xm:f>
+              <xm:sqref>J387</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D388:I388</xm:f>
+              <xm:sqref>J388</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D389:I389</xm:f>
+              <xm:sqref>J389</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D390:I390</xm:f>
+              <xm:sqref>J390</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D391:I391</xm:f>
+              <xm:sqref>J391</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D392:I392</xm:f>
+              <xm:sqref>J392</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D393:I393</xm:f>
+              <xm:sqref>J393</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D394:I394</xm:f>
+              <xm:sqref>J394</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D395:I395</xm:f>
+              <xm:sqref>J395</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D396:I396</xm:f>
+              <xm:sqref>J396</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D397:I397</xm:f>
+              <xm:sqref>J397</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D398:I398</xm:f>
+              <xm:sqref>J398</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D399:I399</xm:f>
+              <xm:sqref>J399</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D400:I400</xm:f>
+              <xm:sqref>J400</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D401:I401</xm:f>
+              <xm:sqref>J401</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D402:I402</xm:f>
+              <xm:sqref>J402</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D403:I403</xm:f>
+              <xm:sqref>J403</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D404:I404</xm:f>
+              <xm:sqref>J404</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D405:I405</xm:f>
+              <xm:sqref>J405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D406:I406</xm:f>
+              <xm:sqref>J406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D407:I407</xm:f>
+              <xm:sqref>J407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D408:I408</xm:f>
+              <xm:sqref>J408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D409:I409</xm:f>
+              <xm:sqref>J409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D410:I410</xm:f>
+              <xm:sqref>J410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D411:I411</xm:f>
+              <xm:sqref>J411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D412:I412</xm:f>
+              <xm:sqref>J412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D413:I413</xm:f>
+              <xm:sqref>J413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D414:I414</xm:f>
+              <xm:sqref>J414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D415:I415</xm:f>
+              <xm:sqref>J415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D416:I416</xm:f>
+              <xm:sqref>J416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D417:I417</xm:f>
+              <xm:sqref>J417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D418:I418</xm:f>
+              <xm:sqref>J418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D419:I419</xm:f>
+              <xm:sqref>J419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D420:I420</xm:f>
+              <xm:sqref>J420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D421:I421</xm:f>
+              <xm:sqref>J421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D422:I422</xm:f>
+              <xm:sqref>J422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D423:I423</xm:f>
+              <xm:sqref>J423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D424:I424</xm:f>
+              <xm:sqref>J424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D425:I425</xm:f>
+              <xm:sqref>J425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D426:I426</xm:f>
+              <xm:sqref>J426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D427:I427</xm:f>
+              <xm:sqref>J427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D428:I428</xm:f>
+              <xm:sqref>J428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D429:I429</xm:f>
+              <xm:sqref>J429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D430:I430</xm:f>
+              <xm:sqref>J430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D431:I431</xm:f>
+              <xm:sqref>J431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D432:I432</xm:f>
+              <xm:sqref>J432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D433:I433</xm:f>
+              <xm:sqref>J433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D434:I434</xm:f>
+              <xm:sqref>J434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D435:I435</xm:f>
+              <xm:sqref>J435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D436:I436</xm:f>
+              <xm:sqref>J436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D437:I437</xm:f>
+              <xm:sqref>J437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D438:I438</xm:f>
+              <xm:sqref>J438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D439:I439</xm:f>
+              <xm:sqref>J439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D440:I440</xm:f>
+              <xm:sqref>J440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D441:I441</xm:f>
+              <xm:sqref>J441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D442:I442</xm:f>
+              <xm:sqref>J442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D443:I443</xm:f>
+              <xm:sqref>J443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D444:I444</xm:f>
+              <xm:sqref>J444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D445:I445</xm:f>
+              <xm:sqref>J445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D446:I446</xm:f>
+              <xm:sqref>J446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
